--- a/data/1.3/vd_gestantes_Dic_2025_corte_final.xlsx
+++ b/data/1.3/vd_gestantes_Dic_2025_corte_final.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7723" uniqueCount="1014">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7725" uniqueCount="1013">
   <si>
     <t>Ubigeo</t>
   </si>
@@ -3034,12 +3034,12 @@
     <t>ARANJUEZ</t>
   </si>
   <si>
+    <t>Visita Completa</t>
+  </si>
+  <si>
     <t>Visita Incompleta</t>
   </si>
   <si>
-    <t>Visita Completa</t>
-  </si>
-  <si>
     <t>GESTANTE</t>
   </si>
   <si>
@@ -3053,9 +3053,6 @@
   </si>
   <si>
     <t>Visita Domiciliaria (Adulta)</t>
-  </si>
-  <si>
-    <t>No Visitadas</t>
   </si>
 </sst>
 </file>
@@ -3686,16 +3683,16 @@
         <v>2</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA2">
         <v>0</v>
@@ -3707,7 +3704,7 @@
         <v>984</v>
       </c>
       <c r="AE2" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM2" t="s">
         <v>1006</v>
@@ -3722,7 +3719,7 @@
         <v>1010</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -3814,10 +3811,10 @@
         <v>984</v>
       </c>
       <c r="AE3" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM3" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN3" t="s">
         <v>1008</v>
@@ -3918,10 +3915,10 @@
         <v>984</v>
       </c>
       <c r="AE4" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM4" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN4" t="s">
         <v>1008</v>
@@ -4022,10 +4019,10 @@
         <v>984</v>
       </c>
       <c r="AE5" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM5" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN5" t="s">
         <v>1008</v>
@@ -4129,10 +4126,10 @@
         <v>984</v>
       </c>
       <c r="AE6" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM6" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN6" t="s">
         <v>1008</v>
@@ -4236,10 +4233,10 @@
         <v>984</v>
       </c>
       <c r="AE7" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM7" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN7" t="s">
         <v>1008</v>
@@ -4343,10 +4340,10 @@
         <v>984</v>
       </c>
       <c r="AE8" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM8" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN8" t="s">
         <v>1008</v>
@@ -4435,10 +4432,10 @@
         <v>984</v>
       </c>
       <c r="AE9" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM9" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN9" t="s">
         <v>1008</v>
@@ -4542,10 +4539,10 @@
         <v>984</v>
       </c>
       <c r="AE10" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM10" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN10" t="s">
         <v>1008</v>
@@ -4646,10 +4643,10 @@
         <v>984</v>
       </c>
       <c r="AE11" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM11" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN11" t="s">
         <v>1008</v>
@@ -4750,10 +4747,10 @@
         <v>984</v>
       </c>
       <c r="AE12" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM12" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN12" t="s">
         <v>1008</v>
@@ -4857,10 +4854,10 @@
         <v>984</v>
       </c>
       <c r="AE13" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM13" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN13" t="s">
         <v>1008</v>
@@ -4964,10 +4961,10 @@
         <v>984</v>
       </c>
       <c r="AE14" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM14" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN14" t="s">
         <v>1008</v>
@@ -5068,10 +5065,10 @@
         <v>984</v>
       </c>
       <c r="AE15" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM15" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN15" t="s">
         <v>1008</v>
@@ -5154,16 +5151,16 @@
         <v>2</v>
       </c>
       <c r="W16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA16">
         <v>0</v>
@@ -5175,7 +5172,7 @@
         <v>984</v>
       </c>
       <c r="AE16" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM16" t="s">
         <v>1006</v>
@@ -5190,7 +5187,7 @@
         <v>1012</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:43">
@@ -5279,10 +5276,10 @@
         <v>984</v>
       </c>
       <c r="AE17" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM17" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN17" t="s">
         <v>1008</v>
@@ -5371,10 +5368,10 @@
         <v>984</v>
       </c>
       <c r="AE18" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM18" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN18" t="s">
         <v>1008</v>
@@ -5478,10 +5475,10 @@
         <v>984</v>
       </c>
       <c r="AE19" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM19" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN19" t="s">
         <v>1008</v>
@@ -5582,10 +5579,10 @@
         <v>984</v>
       </c>
       <c r="AE20" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM20" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN20" t="s">
         <v>1008</v>
@@ -5674,10 +5671,10 @@
         <v>984</v>
       </c>
       <c r="AE21" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM21" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN21" t="s">
         <v>1008</v>
@@ -5745,16 +5742,16 @@
         <v>2</v>
       </c>
       <c r="W22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA22">
         <v>0</v>
@@ -5766,7 +5763,7 @@
         <v>984</v>
       </c>
       <c r="AE22" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM22" t="s">
         <v>1006</v>
@@ -5781,7 +5778,7 @@
         <v>1012</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:43">
@@ -5870,10 +5867,10 @@
         <v>984</v>
       </c>
       <c r="AE23" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM23" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN23" t="s">
         <v>1008</v>
@@ -5962,10 +5959,10 @@
         <v>984</v>
       </c>
       <c r="AE24" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM24" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN24" t="s">
         <v>1008</v>
@@ -6069,10 +6066,10 @@
         <v>984</v>
       </c>
       <c r="AE25" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM25" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN25" t="s">
         <v>1008</v>
@@ -6173,10 +6170,10 @@
         <v>984</v>
       </c>
       <c r="AE26" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM26" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN26" t="s">
         <v>1008</v>
@@ -6277,10 +6274,10 @@
         <v>984</v>
       </c>
       <c r="AE27" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM27" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN27" t="s">
         <v>1008</v>
@@ -6384,10 +6381,10 @@
         <v>984</v>
       </c>
       <c r="AE28" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM28" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN28" t="s">
         <v>1008</v>
@@ -6467,16 +6464,16 @@
         <v>2</v>
       </c>
       <c r="W29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA29">
         <v>0</v>
@@ -6488,7 +6485,7 @@
         <v>984</v>
       </c>
       <c r="AE29" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM29" t="s">
         <v>1006</v>
@@ -6503,7 +6500,7 @@
         <v>1012</v>
       </c>
       <c r="AQ29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:43">
@@ -6580,10 +6577,10 @@
         <v>984</v>
       </c>
       <c r="AE30" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM30" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN30" t="s">
         <v>1008</v>
@@ -6663,16 +6660,16 @@
         <v>2</v>
       </c>
       <c r="W31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA31">
         <v>0</v>
@@ -6684,7 +6681,7 @@
         <v>984</v>
       </c>
       <c r="AE31" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM31" t="s">
         <v>1006</v>
@@ -6699,7 +6696,7 @@
         <v>1012</v>
       </c>
       <c r="AQ31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:43">
@@ -6776,10 +6773,10 @@
         <v>984</v>
       </c>
       <c r="AE32" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM32" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN32" t="s">
         <v>1008</v>
@@ -6868,10 +6865,10 @@
         <v>984</v>
       </c>
       <c r="AE33" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM33" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN33" t="s">
         <v>1008</v>
@@ -6972,10 +6969,10 @@
         <v>984</v>
       </c>
       <c r="AE34" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM34" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN34" t="s">
         <v>1008</v>
@@ -7079,10 +7076,10 @@
         <v>984</v>
       </c>
       <c r="AE35" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM35" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN35" t="s">
         <v>1008</v>
@@ -7186,10 +7183,10 @@
         <v>984</v>
       </c>
       <c r="AE36" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM36" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN36" t="s">
         <v>1008</v>
@@ -7293,10 +7290,10 @@
         <v>984</v>
       </c>
       <c r="AE37" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM37" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN37" t="s">
         <v>1008</v>
@@ -7376,16 +7373,16 @@
         <v>2</v>
       </c>
       <c r="W38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y38">
         <v>0</v>
       </c>
       <c r="Z38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA38">
         <v>0</v>
@@ -7397,7 +7394,7 @@
         <v>984</v>
       </c>
       <c r="AE38" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM38" t="s">
         <v>1006</v>
@@ -7412,7 +7409,7 @@
         <v>1012</v>
       </c>
       <c r="AQ38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:43">
@@ -7504,10 +7501,10 @@
         <v>984</v>
       </c>
       <c r="AE39" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM39" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN39" t="s">
         <v>1008</v>
@@ -7608,7 +7605,7 @@
         <v>984</v>
       </c>
       <c r="AE40" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AF40" t="s">
         <v>115</v>
@@ -7632,7 +7629,7 @@
         <v>0</v>
       </c>
       <c r="AM40" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN40" t="s">
         <v>1009</v>
@@ -7733,10 +7730,10 @@
         <v>984</v>
       </c>
       <c r="AE41" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM41" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN41" t="s">
         <v>1008</v>
@@ -7840,10 +7837,10 @@
         <v>984</v>
       </c>
       <c r="AE42" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM42" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN42" t="s">
         <v>1008</v>
@@ -7926,16 +7923,16 @@
         <v>2</v>
       </c>
       <c r="W43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y43">
         <v>0</v>
       </c>
       <c r="Z43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA43">
         <v>0</v>
@@ -7947,7 +7944,7 @@
         <v>984</v>
       </c>
       <c r="AE43" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM43" t="s">
         <v>1006</v>
@@ -7962,7 +7959,7 @@
         <v>1012</v>
       </c>
       <c r="AQ43">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:43">
@@ -8051,10 +8048,10 @@
         <v>984</v>
       </c>
       <c r="AE44" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM44" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN44" t="s">
         <v>1008</v>
@@ -8103,6 +8100,9 @@
       <c r="K45" t="s">
         <v>488</v>
       </c>
+      <c r="L45" t="s">
+        <v>812</v>
+      </c>
       <c r="M45">
         <v>990353548</v>
       </c>
@@ -8131,16 +8131,16 @@
         <v>2</v>
       </c>
       <c r="W45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA45">
         <v>0</v>
@@ -8152,7 +8152,7 @@
         <v>984</v>
       </c>
       <c r="AE45" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM45" t="s">
         <v>1006</v>
@@ -8160,8 +8160,14 @@
       <c r="AN45" t="s">
         <v>1008</v>
       </c>
+      <c r="AO45" t="s">
+        <v>120</v>
+      </c>
       <c r="AP45" t="s">
-        <v>1013</v>
+        <v>1012</v>
+      </c>
+      <c r="AQ45">
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:43">
@@ -8250,10 +8256,10 @@
         <v>984</v>
       </c>
       <c r="AE46" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM46" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN46" t="s">
         <v>1008</v>
@@ -8354,10 +8360,10 @@
         <v>984</v>
       </c>
       <c r="AE47" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM47" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN47" t="s">
         <v>1008</v>
@@ -8458,10 +8464,10 @@
         <v>984</v>
       </c>
       <c r="AE48" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM48" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN48" t="s">
         <v>1008</v>
@@ -8541,16 +8547,16 @@
         <v>2</v>
       </c>
       <c r="W49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y49">
         <v>0</v>
       </c>
       <c r="Z49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA49">
         <v>0</v>
@@ -8562,7 +8568,7 @@
         <v>984</v>
       </c>
       <c r="AE49" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM49" t="s">
         <v>1006</v>
@@ -8577,7 +8583,7 @@
         <v>1012</v>
       </c>
       <c r="AQ49">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:43">
@@ -8666,10 +8672,10 @@
         <v>984</v>
       </c>
       <c r="AE50" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM50" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN50" t="s">
         <v>1008</v>
@@ -8770,10 +8776,10 @@
         <v>984</v>
       </c>
       <c r="AE51" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM51" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN51" t="s">
         <v>1008</v>
@@ -8871,10 +8877,10 @@
         <v>984</v>
       </c>
       <c r="AE52" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM52" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN52" t="s">
         <v>1008</v>
@@ -8963,10 +8969,10 @@
         <v>984</v>
       </c>
       <c r="AE53" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM53" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN53" t="s">
         <v>1008</v>
@@ -9070,10 +9076,10 @@
         <v>984</v>
       </c>
       <c r="AE54" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM54" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN54" t="s">
         <v>1008</v>
@@ -9174,10 +9180,10 @@
         <v>984</v>
       </c>
       <c r="AE55" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM55" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN55" t="s">
         <v>1008</v>
@@ -9278,10 +9284,10 @@
         <v>984</v>
       </c>
       <c r="AE56" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM56" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN56" t="s">
         <v>1008</v>
@@ -9364,16 +9370,16 @@
         <v>2</v>
       </c>
       <c r="W57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y57">
         <v>0</v>
       </c>
       <c r="Z57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA57">
         <v>0</v>
@@ -9385,7 +9391,7 @@
         <v>984</v>
       </c>
       <c r="AE57" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM57" t="s">
         <v>1006</v>
@@ -9400,7 +9406,7 @@
         <v>1012</v>
       </c>
       <c r="AQ57">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:43">
@@ -9489,10 +9495,10 @@
         <v>984</v>
       </c>
       <c r="AE58" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM58" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN58" t="s">
         <v>1008</v>
@@ -9596,10 +9602,10 @@
         <v>984</v>
       </c>
       <c r="AE59" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM59" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN59" t="s">
         <v>1008</v>
@@ -9703,10 +9709,10 @@
         <v>984</v>
       </c>
       <c r="AE60" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM60" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN60" t="s">
         <v>1008</v>
@@ -9789,16 +9795,16 @@
         <v>2</v>
       </c>
       <c r="W61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y61">
         <v>0</v>
       </c>
       <c r="Z61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA61">
         <v>0</v>
@@ -9810,7 +9816,7 @@
         <v>984</v>
       </c>
       <c r="AE61" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM61" t="s">
         <v>1006</v>
@@ -9825,7 +9831,7 @@
         <v>1012</v>
       </c>
       <c r="AQ61">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:43">
@@ -9902,10 +9908,10 @@
         <v>984</v>
       </c>
       <c r="AE62" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM62" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN62" t="s">
         <v>1008</v>
@@ -10009,10 +10015,10 @@
         <v>984</v>
       </c>
       <c r="AE63" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM63" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN63" t="s">
         <v>1008</v>
@@ -10092,16 +10098,16 @@
         <v>2</v>
       </c>
       <c r="W64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y64">
         <v>0</v>
       </c>
       <c r="Z64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA64">
         <v>0</v>
@@ -10113,7 +10119,7 @@
         <v>984</v>
       </c>
       <c r="AE64" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM64" t="s">
         <v>1006</v>
@@ -10128,7 +10134,7 @@
         <v>1012</v>
       </c>
       <c r="AQ64">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:43">
@@ -10205,10 +10211,10 @@
         <v>984</v>
       </c>
       <c r="AE65" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM65" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN65" t="s">
         <v>1008</v>
@@ -10312,10 +10318,10 @@
         <v>984</v>
       </c>
       <c r="AE66" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM66" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN66" t="s">
         <v>1008</v>
@@ -10416,10 +10422,10 @@
         <v>984</v>
       </c>
       <c r="AE67" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM67" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN67" t="s">
         <v>1008</v>
@@ -10523,10 +10529,10 @@
         <v>984</v>
       </c>
       <c r="AE68" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM68" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN68" t="s">
         <v>1008</v>
@@ -10615,10 +10621,10 @@
         <v>984</v>
       </c>
       <c r="AE69" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM69" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN69" t="s">
         <v>1008</v>
@@ -10722,10 +10728,10 @@
         <v>984</v>
       </c>
       <c r="AE70" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM70" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN70" t="s">
         <v>1008</v>
@@ -10826,10 +10832,10 @@
         <v>984</v>
       </c>
       <c r="AE71" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM71" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN71" t="s">
         <v>1008</v>
@@ -10933,10 +10939,10 @@
         <v>984</v>
       </c>
       <c r="AE72" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM72" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN72" t="s">
         <v>1008</v>
@@ -11040,10 +11046,10 @@
         <v>984</v>
       </c>
       <c r="AE73" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM73" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN73" t="s">
         <v>1008</v>
@@ -11147,10 +11153,10 @@
         <v>984</v>
       </c>
       <c r="AE74" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM74" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN74" t="s">
         <v>1008</v>
@@ -11230,16 +11236,16 @@
         <v>2</v>
       </c>
       <c r="W75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y75">
         <v>0</v>
       </c>
       <c r="Z75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA75">
         <v>0</v>
@@ -11251,7 +11257,7 @@
         <v>984</v>
       </c>
       <c r="AE75" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM75" t="s">
         <v>1006</v>
@@ -11266,7 +11272,7 @@
         <v>1012</v>
       </c>
       <c r="AQ75">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:43">
@@ -11355,10 +11361,10 @@
         <v>984</v>
       </c>
       <c r="AE76" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM76" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN76" t="s">
         <v>1008</v>
@@ -11459,10 +11465,10 @@
         <v>984</v>
       </c>
       <c r="AE77" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM77" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN77" t="s">
         <v>1008</v>
@@ -11563,10 +11569,10 @@
         <v>984</v>
       </c>
       <c r="AE78" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM78" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN78" t="s">
         <v>1008</v>
@@ -11670,10 +11676,10 @@
         <v>984</v>
       </c>
       <c r="AE79" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM79" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN79" t="s">
         <v>1008</v>
@@ -11774,10 +11780,10 @@
         <v>984</v>
       </c>
       <c r="AE80" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM80" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN80" t="s">
         <v>1008</v>
@@ -11881,10 +11887,10 @@
         <v>984</v>
       </c>
       <c r="AE81" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM81" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN81" t="s">
         <v>1008</v>
@@ -11985,10 +11991,10 @@
         <v>984</v>
       </c>
       <c r="AE82" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM82" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN82" t="s">
         <v>1008</v>
@@ -12089,10 +12095,10 @@
         <v>984</v>
       </c>
       <c r="AE83" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM83" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN83" t="s">
         <v>1008</v>
@@ -12193,10 +12199,10 @@
         <v>984</v>
       </c>
       <c r="AE84" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM84" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN84" t="s">
         <v>1008</v>
@@ -12300,10 +12306,10 @@
         <v>984</v>
       </c>
       <c r="AE85" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM85" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN85" t="s">
         <v>1008</v>
@@ -12386,16 +12392,16 @@
         <v>2</v>
       </c>
       <c r="W86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y86">
         <v>0</v>
       </c>
       <c r="Z86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA86">
         <v>0</v>
@@ -12407,7 +12413,7 @@
         <v>984</v>
       </c>
       <c r="AE86" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM86" t="s">
         <v>1006</v>
@@ -12422,7 +12428,7 @@
         <v>1012</v>
       </c>
       <c r="AQ86">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:43">
@@ -12514,10 +12520,10 @@
         <v>984</v>
       </c>
       <c r="AE87" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM87" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN87" t="s">
         <v>1008</v>
@@ -12618,10 +12624,10 @@
         <v>984</v>
       </c>
       <c r="AE88" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM88" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN88" t="s">
         <v>1008</v>
@@ -12722,10 +12728,10 @@
         <v>984</v>
       </c>
       <c r="AE89" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM89" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN89" t="s">
         <v>1008</v>
@@ -12826,10 +12832,10 @@
         <v>984</v>
       </c>
       <c r="AE90" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM90" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN90" t="s">
         <v>1008</v>
@@ -12930,10 +12936,10 @@
         <v>984</v>
       </c>
       <c r="AE91" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM91" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN91" t="s">
         <v>1008</v>
@@ -13034,10 +13040,10 @@
         <v>984</v>
       </c>
       <c r="AE92" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM92" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN92" t="s">
         <v>1008</v>
@@ -13138,10 +13144,10 @@
         <v>984</v>
       </c>
       <c r="AE93" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM93" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN93" t="s">
         <v>1008</v>
@@ -13242,10 +13248,10 @@
         <v>984</v>
       </c>
       <c r="AE94" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM94" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN94" t="s">
         <v>1008</v>
@@ -13313,16 +13319,16 @@
         <v>2</v>
       </c>
       <c r="W95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y95">
         <v>0</v>
       </c>
       <c r="Z95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA95">
         <v>0</v>
@@ -13334,7 +13340,7 @@
         <v>984</v>
       </c>
       <c r="AE95" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM95" t="s">
         <v>1006</v>
@@ -13349,7 +13355,7 @@
         <v>1012</v>
       </c>
       <c r="AQ95">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:43">
@@ -13417,16 +13423,16 @@
         <v>2</v>
       </c>
       <c r="W96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y96">
         <v>0</v>
       </c>
       <c r="Z96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA96">
         <v>0</v>
@@ -13438,7 +13444,7 @@
         <v>984</v>
       </c>
       <c r="AE96" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM96" t="s">
         <v>1006</v>
@@ -13453,7 +13459,7 @@
         <v>1012</v>
       </c>
       <c r="AQ96">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:43">
@@ -13521,16 +13527,16 @@
         <v>2</v>
       </c>
       <c r="W97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y97">
         <v>0</v>
       </c>
       <c r="Z97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA97">
         <v>0</v>
@@ -13542,7 +13548,7 @@
         <v>984</v>
       </c>
       <c r="AE97" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM97" t="s">
         <v>1006</v>
@@ -13557,7 +13563,7 @@
         <v>1012</v>
       </c>
       <c r="AQ97">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:43">
@@ -13649,10 +13655,10 @@
         <v>984</v>
       </c>
       <c r="AE98" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM98" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN98" t="s">
         <v>1008</v>
@@ -13753,10 +13759,10 @@
         <v>984</v>
       </c>
       <c r="AE99" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM99" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN99" t="s">
         <v>1008</v>
@@ -13857,10 +13863,10 @@
         <v>984</v>
       </c>
       <c r="AE100" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM100" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN100" t="s">
         <v>1008</v>
@@ -13961,10 +13967,10 @@
         <v>984</v>
       </c>
       <c r="AE101" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM101" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN101" t="s">
         <v>1008</v>
@@ -14065,10 +14071,10 @@
         <v>984</v>
       </c>
       <c r="AE102" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM102" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN102" t="s">
         <v>1008</v>
@@ -14169,10 +14175,10 @@
         <v>984</v>
       </c>
       <c r="AE103" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM103" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN103" t="s">
         <v>1008</v>
@@ -14273,10 +14279,10 @@
         <v>984</v>
       </c>
       <c r="AE104" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM104" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN104" t="s">
         <v>1008</v>
@@ -14365,10 +14371,10 @@
         <v>984</v>
       </c>
       <c r="AE105" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM105" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN105" t="s">
         <v>1008</v>
@@ -14469,10 +14475,10 @@
         <v>984</v>
       </c>
       <c r="AE106" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM106" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN106" t="s">
         <v>1008</v>
@@ -14573,10 +14579,10 @@
         <v>984</v>
       </c>
       <c r="AE107" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM107" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN107" t="s">
         <v>1008</v>
@@ -14677,10 +14683,10 @@
         <v>984</v>
       </c>
       <c r="AE108" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM108" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN108" t="s">
         <v>1008</v>
@@ -14784,10 +14790,10 @@
         <v>984</v>
       </c>
       <c r="AE109" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM109" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN109" t="s">
         <v>1008</v>
@@ -14888,10 +14894,10 @@
         <v>984</v>
       </c>
       <c r="AE110" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM110" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN110" t="s">
         <v>1008</v>
@@ -14980,10 +14986,10 @@
         <v>984</v>
       </c>
       <c r="AE111" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM111" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN111" t="s">
         <v>1008</v>
@@ -15072,10 +15078,10 @@
         <v>984</v>
       </c>
       <c r="AE112" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM112" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN112" t="s">
         <v>1008</v>
@@ -15155,16 +15161,16 @@
         <v>2</v>
       </c>
       <c r="W113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y113">
         <v>0</v>
       </c>
       <c r="Z113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA113">
         <v>0</v>
@@ -15176,7 +15182,7 @@
         <v>984</v>
       </c>
       <c r="AE113" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM113" t="s">
         <v>1006</v>
@@ -15191,7 +15197,7 @@
         <v>1012</v>
       </c>
       <c r="AQ113">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:43">
@@ -15283,10 +15289,10 @@
         <v>984</v>
       </c>
       <c r="AE114" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM114" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN114" t="s">
         <v>1008</v>
@@ -15366,16 +15372,16 @@
         <v>2</v>
       </c>
       <c r="W115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y115">
         <v>0</v>
       </c>
       <c r="Z115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA115">
         <v>0</v>
@@ -15387,7 +15393,7 @@
         <v>984</v>
       </c>
       <c r="AE115" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM115" t="s">
         <v>1006</v>
@@ -15402,7 +15408,7 @@
         <v>1012</v>
       </c>
       <c r="AQ115">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:43">
@@ -15494,10 +15500,10 @@
         <v>984</v>
       </c>
       <c r="AE116" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM116" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN116" t="s">
         <v>1008</v>
@@ -15598,10 +15604,10 @@
         <v>984</v>
       </c>
       <c r="AE117" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM117" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN117" t="s">
         <v>1008</v>
@@ -15705,10 +15711,10 @@
         <v>984</v>
       </c>
       <c r="AE118" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM118" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN118" t="s">
         <v>1008</v>
@@ -15809,10 +15815,10 @@
         <v>984</v>
       </c>
       <c r="AE119" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM119" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN119" t="s">
         <v>1008</v>
@@ -15913,10 +15919,10 @@
         <v>984</v>
       </c>
       <c r="AE120" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM120" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN120" t="s">
         <v>1008</v>
@@ -16020,10 +16026,10 @@
         <v>984</v>
       </c>
       <c r="AE121" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM121" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN121" t="s">
         <v>1008</v>
@@ -16124,10 +16130,10 @@
         <v>984</v>
       </c>
       <c r="AE122" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM122" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN122" t="s">
         <v>1008</v>
@@ -16228,10 +16234,10 @@
         <v>984</v>
       </c>
       <c r="AE123" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM123" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN123" t="s">
         <v>1008</v>
@@ -16332,10 +16338,10 @@
         <v>984</v>
       </c>
       <c r="AE124" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM124" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN124" t="s">
         <v>1008</v>
@@ -16436,10 +16442,10 @@
         <v>984</v>
       </c>
       <c r="AE125" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM125" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN125" t="s">
         <v>1008</v>
@@ -16543,10 +16549,10 @@
         <v>984</v>
       </c>
       <c r="AE126" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM126" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN126" t="s">
         <v>1008</v>
@@ -16626,16 +16632,16 @@
         <v>2</v>
       </c>
       <c r="W127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y127">
         <v>0</v>
       </c>
       <c r="Z127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA127">
         <v>0</v>
@@ -16647,7 +16653,7 @@
         <v>984</v>
       </c>
       <c r="AE127" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM127" t="s">
         <v>1006</v>
@@ -16662,7 +16668,7 @@
         <v>1012</v>
       </c>
       <c r="AQ127">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:43">
@@ -16754,10 +16760,10 @@
         <v>984</v>
       </c>
       <c r="AE128" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM128" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN128" t="s">
         <v>1008</v>
@@ -16858,10 +16864,10 @@
         <v>984</v>
       </c>
       <c r="AE129" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM129" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN129" t="s">
         <v>1008</v>
@@ -16962,10 +16968,10 @@
         <v>984</v>
       </c>
       <c r="AE130" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM130" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN130" t="s">
         <v>1008</v>
@@ -17066,10 +17072,10 @@
         <v>984</v>
       </c>
       <c r="AE131" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM131" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN131" t="s">
         <v>1008</v>
@@ -17170,10 +17176,10 @@
         <v>984</v>
       </c>
       <c r="AE132" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM132" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN132" t="s">
         <v>1008</v>
@@ -17274,10 +17280,10 @@
         <v>984</v>
       </c>
       <c r="AE133" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM133" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN133" t="s">
         <v>1008</v>
@@ -17381,10 +17387,10 @@
         <v>984</v>
       </c>
       <c r="AE134" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM134" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN134" t="s">
         <v>1008</v>
@@ -17473,10 +17479,10 @@
         <v>984</v>
       </c>
       <c r="AE135" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM135" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN135" t="s">
         <v>1008</v>
@@ -17580,10 +17586,10 @@
         <v>984</v>
       </c>
       <c r="AE136" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM136" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN136" t="s">
         <v>1008</v>
@@ -17684,10 +17690,10 @@
         <v>984</v>
       </c>
       <c r="AE137" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM137" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN137" t="s">
         <v>1008</v>
@@ -17788,10 +17794,10 @@
         <v>984</v>
       </c>
       <c r="AE138" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM138" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN138" t="s">
         <v>1008</v>
@@ -17892,10 +17898,10 @@
         <v>984</v>
       </c>
       <c r="AE139" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM139" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN139" t="s">
         <v>1008</v>
@@ -17996,10 +18002,10 @@
         <v>984</v>
       </c>
       <c r="AE140" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM140" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN140" t="s">
         <v>1008</v>
@@ -18103,10 +18109,10 @@
         <v>984</v>
       </c>
       <c r="AE141" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM141" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN141" t="s">
         <v>1008</v>
@@ -18207,10 +18213,10 @@
         <v>984</v>
       </c>
       <c r="AE142" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM142" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN142" t="s">
         <v>1008</v>
@@ -18311,10 +18317,10 @@
         <v>984</v>
       </c>
       <c r="AE143" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM143" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN143" t="s">
         <v>1008</v>
@@ -18415,10 +18421,10 @@
         <v>984</v>
       </c>
       <c r="AE144" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM144" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN144" t="s">
         <v>1008</v>
@@ -18498,16 +18504,16 @@
         <v>2</v>
       </c>
       <c r="W145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y145">
         <v>0</v>
       </c>
       <c r="Z145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA145">
         <v>0</v>
@@ -18519,7 +18525,7 @@
         <v>984</v>
       </c>
       <c r="AE145" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM145" t="s">
         <v>1006</v>
@@ -18534,7 +18540,7 @@
         <v>1012</v>
       </c>
       <c r="AQ145">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:43">
@@ -18623,10 +18629,10 @@
         <v>984</v>
       </c>
       <c r="AE146" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM146" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN146" t="s">
         <v>1008</v>
@@ -18727,10 +18733,10 @@
         <v>984</v>
       </c>
       <c r="AE147" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM147" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN147" t="s">
         <v>1008</v>
@@ -18834,10 +18840,10 @@
         <v>984</v>
       </c>
       <c r="AE148" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM148" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN148" t="s">
         <v>1008</v>
@@ -18920,16 +18926,16 @@
         <v>2</v>
       </c>
       <c r="W149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y149">
         <v>0</v>
       </c>
       <c r="Z149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA149">
         <v>0</v>
@@ -18941,7 +18947,7 @@
         <v>984</v>
       </c>
       <c r="AE149" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM149" t="s">
         <v>1006</v>
@@ -18956,7 +18962,7 @@
         <v>1012</v>
       </c>
       <c r="AQ149">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:43">
@@ -19045,10 +19051,10 @@
         <v>984</v>
       </c>
       <c r="AE150" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM150" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN150" t="s">
         <v>1008</v>
@@ -19137,7 +19143,7 @@
         <v>984</v>
       </c>
       <c r="AE151" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AF151" t="s">
         <v>226</v>
@@ -19161,7 +19167,7 @@
         <v>0</v>
       </c>
       <c r="AM151" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN151" t="s">
         <v>1009</v>
@@ -19262,10 +19268,10 @@
         <v>984</v>
       </c>
       <c r="AE152" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM152" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN152" t="s">
         <v>1008</v>
@@ -19345,16 +19351,16 @@
         <v>2</v>
       </c>
       <c r="W153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y153">
         <v>0</v>
       </c>
       <c r="Z153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA153">
         <v>0</v>
@@ -19366,7 +19372,7 @@
         <v>984</v>
       </c>
       <c r="AE153" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM153" t="s">
         <v>1006</v>
@@ -19381,7 +19387,7 @@
         <v>1012</v>
       </c>
       <c r="AQ153">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:43">
@@ -19458,7 +19464,7 @@
         <v>984</v>
       </c>
       <c r="AE154" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AF154" t="s">
         <v>229</v>
@@ -19482,7 +19488,7 @@
         <v>0</v>
       </c>
       <c r="AM154" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN154" t="s">
         <v>1009</v>
@@ -19583,10 +19589,10 @@
         <v>984</v>
       </c>
       <c r="AE155" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM155" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN155" t="s">
         <v>1008</v>
@@ -19666,16 +19672,16 @@
         <v>2</v>
       </c>
       <c r="W156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y156">
         <v>0</v>
       </c>
       <c r="Z156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA156">
         <v>0</v>
@@ -19687,7 +19693,7 @@
         <v>984</v>
       </c>
       <c r="AE156" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM156" t="s">
         <v>1006</v>
@@ -19702,7 +19708,7 @@
         <v>1012</v>
       </c>
       <c r="AQ156">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:43">
@@ -19773,16 +19779,16 @@
         <v>2</v>
       </c>
       <c r="W157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y157">
         <v>0</v>
       </c>
       <c r="Z157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA157">
         <v>0</v>
@@ -19794,7 +19800,7 @@
         <v>984</v>
       </c>
       <c r="AE157" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM157" t="s">
         <v>1006</v>
@@ -19809,7 +19815,7 @@
         <v>1012</v>
       </c>
       <c r="AQ157">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:43">
@@ -19886,10 +19892,10 @@
         <v>984</v>
       </c>
       <c r="AE158" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM158" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN158" t="s">
         <v>1008</v>
@@ -19969,16 +19975,16 @@
         <v>2</v>
       </c>
       <c r="W159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y159">
         <v>0</v>
       </c>
       <c r="Z159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA159">
         <v>0</v>
@@ -19990,7 +19996,7 @@
         <v>984</v>
       </c>
       <c r="AE159" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM159" t="s">
         <v>1006</v>
@@ -20005,7 +20011,7 @@
         <v>1012</v>
       </c>
       <c r="AQ159">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:43">
@@ -20094,10 +20100,10 @@
         <v>984</v>
       </c>
       <c r="AE160" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM160" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN160" t="s">
         <v>1008</v>
@@ -20165,16 +20171,16 @@
         <v>2</v>
       </c>
       <c r="W161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y161">
         <v>0</v>
       </c>
       <c r="Z161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA161">
         <v>0</v>
@@ -20186,7 +20192,7 @@
         <v>984</v>
       </c>
       <c r="AE161" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM161" t="s">
         <v>1006</v>
@@ -20201,7 +20207,7 @@
         <v>1012</v>
       </c>
       <c r="AQ161">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:43">
@@ -20290,10 +20296,10 @@
         <v>984</v>
       </c>
       <c r="AE162" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM162" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN162" t="s">
         <v>1008</v>
@@ -20382,10 +20388,10 @@
         <v>984</v>
       </c>
       <c r="AE163" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM163" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN163" t="s">
         <v>1008</v>
@@ -20486,10 +20492,10 @@
         <v>984</v>
       </c>
       <c r="AE164" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM164" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN164" t="s">
         <v>1008</v>
@@ -20578,10 +20584,10 @@
         <v>984</v>
       </c>
       <c r="AE165" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM165" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN165" t="s">
         <v>1008</v>
@@ -20682,10 +20688,10 @@
         <v>984</v>
       </c>
       <c r="AE166" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM166" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN166" t="s">
         <v>1008</v>
@@ -20786,10 +20792,10 @@
         <v>984</v>
       </c>
       <c r="AE167" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM167" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN167" t="s">
         <v>1008</v>
@@ -20893,10 +20899,10 @@
         <v>984</v>
       </c>
       <c r="AE168" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM168" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN168" t="s">
         <v>1008</v>
@@ -20997,10 +21003,10 @@
         <v>984</v>
       </c>
       <c r="AE169" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM169" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN169" t="s">
         <v>1008</v>
@@ -21101,10 +21107,10 @@
         <v>984</v>
       </c>
       <c r="AE170" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM170" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN170" t="s">
         <v>1008</v>
@@ -21193,10 +21199,10 @@
         <v>984</v>
       </c>
       <c r="AE171" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM171" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN171" t="s">
         <v>1008</v>
@@ -21285,10 +21291,10 @@
         <v>984</v>
       </c>
       <c r="AE172" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM172" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN172" t="s">
         <v>1008</v>
@@ -21368,16 +21374,16 @@
         <v>2</v>
       </c>
       <c r="W173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y173">
         <v>0</v>
       </c>
       <c r="Z173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA173">
         <v>0</v>
@@ -21389,7 +21395,7 @@
         <v>984</v>
       </c>
       <c r="AE173" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM173" t="s">
         <v>1006</v>
@@ -21404,7 +21410,7 @@
         <v>1012</v>
       </c>
       <c r="AQ173">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:43">
@@ -21493,10 +21499,10 @@
         <v>984</v>
       </c>
       <c r="AE174" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM174" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN174" t="s">
         <v>1008</v>
@@ -21597,10 +21603,10 @@
         <v>984</v>
       </c>
       <c r="AE175" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM175" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN175" t="s">
         <v>1008</v>
@@ -21689,10 +21695,10 @@
         <v>984</v>
       </c>
       <c r="AE176" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM176" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN176" t="s">
         <v>1008</v>
@@ -21793,10 +21799,10 @@
         <v>984</v>
       </c>
       <c r="AE177" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM177" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN177" t="s">
         <v>1008</v>
@@ -21885,10 +21891,10 @@
         <v>984</v>
       </c>
       <c r="AE178" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM178" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN178" t="s">
         <v>1008</v>
@@ -21968,16 +21974,16 @@
         <v>2</v>
       </c>
       <c r="W179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y179">
         <v>0</v>
       </c>
       <c r="Z179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA179">
         <v>0</v>
@@ -21989,7 +21995,7 @@
         <v>984</v>
       </c>
       <c r="AE179" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM179" t="s">
         <v>1006</v>
@@ -22004,7 +22010,7 @@
         <v>1012</v>
       </c>
       <c r="AQ179">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:43">
@@ -22081,10 +22087,10 @@
         <v>984</v>
       </c>
       <c r="AE180" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM180" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN180" t="s">
         <v>1008</v>
@@ -22185,10 +22191,10 @@
         <v>984</v>
       </c>
       <c r="AE181" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM181" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN181" t="s">
         <v>1008</v>
@@ -22289,10 +22295,10 @@
         <v>984</v>
       </c>
       <c r="AE182" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM182" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN182" t="s">
         <v>1008</v>
@@ -22360,16 +22366,16 @@
         <v>2</v>
       </c>
       <c r="W183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y183">
         <v>0</v>
       </c>
       <c r="Z183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA183">
         <v>0</v>
@@ -22381,7 +22387,7 @@
         <v>984</v>
       </c>
       <c r="AE183" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM183" t="s">
         <v>1006</v>
@@ -22396,7 +22402,7 @@
         <v>1012</v>
       </c>
       <c r="AQ183">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:43">
@@ -22485,10 +22491,10 @@
         <v>984</v>
       </c>
       <c r="AE184" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM184" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN184" t="s">
         <v>1008</v>
@@ -22592,10 +22598,10 @@
         <v>984</v>
       </c>
       <c r="AE185" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM185" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN185" t="s">
         <v>1008</v>
@@ -22696,10 +22702,10 @@
         <v>984</v>
       </c>
       <c r="AE186" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM186" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN186" t="s">
         <v>1008</v>
@@ -22788,10 +22794,10 @@
         <v>984</v>
       </c>
       <c r="AE187" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM187" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN187" t="s">
         <v>1008</v>
@@ -22880,10 +22886,10 @@
         <v>984</v>
       </c>
       <c r="AE188" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM188" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN188" t="s">
         <v>1008</v>
@@ -22987,10 +22993,10 @@
         <v>984</v>
       </c>
       <c r="AE189" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM189" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN189" t="s">
         <v>1008</v>
@@ -23094,10 +23100,10 @@
         <v>984</v>
       </c>
       <c r="AE190" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM190" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN190" t="s">
         <v>1008</v>
@@ -23180,16 +23186,16 @@
         <v>2</v>
       </c>
       <c r="W191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y191">
         <v>0</v>
       </c>
       <c r="Z191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA191">
         <v>0</v>
@@ -23201,7 +23207,7 @@
         <v>984</v>
       </c>
       <c r="AE191" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM191" t="s">
         <v>1006</v>
@@ -23216,7 +23222,7 @@
         <v>1012</v>
       </c>
       <c r="AQ191">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:43">
@@ -23305,10 +23311,10 @@
         <v>984</v>
       </c>
       <c r="AE192" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM192" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN192" t="s">
         <v>1008</v>
@@ -23412,10 +23418,10 @@
         <v>984</v>
       </c>
       <c r="AE193" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM193" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN193" t="s">
         <v>1008</v>
@@ -23519,10 +23525,10 @@
         <v>984</v>
       </c>
       <c r="AE194" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM194" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN194" t="s">
         <v>1008</v>
@@ -23611,10 +23617,10 @@
         <v>984</v>
       </c>
       <c r="AE195" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM195" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN195" t="s">
         <v>1008</v>
@@ -23715,10 +23721,10 @@
         <v>984</v>
       </c>
       <c r="AE196" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM196" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN196" t="s">
         <v>1008</v>
@@ -23798,16 +23804,16 @@
         <v>2</v>
       </c>
       <c r="W197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y197">
         <v>0</v>
       </c>
       <c r="Z197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA197">
         <v>0</v>
@@ -23819,7 +23825,7 @@
         <v>984</v>
       </c>
       <c r="AE197" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM197" t="s">
         <v>1006</v>
@@ -23834,7 +23840,7 @@
         <v>1012</v>
       </c>
       <c r="AQ197">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:43">
@@ -23923,10 +23929,10 @@
         <v>984</v>
       </c>
       <c r="AE198" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM198" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN198" t="s">
         <v>1008</v>
@@ -24027,10 +24033,10 @@
         <v>984</v>
       </c>
       <c r="AE199" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM199" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN199" t="s">
         <v>1008</v>
@@ -24119,10 +24125,10 @@
         <v>984</v>
       </c>
       <c r="AE200" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM200" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN200" t="s">
         <v>1008</v>
@@ -24223,10 +24229,10 @@
         <v>984</v>
       </c>
       <c r="AE201" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM201" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN201" t="s">
         <v>1008</v>
@@ -24327,10 +24333,10 @@
         <v>984</v>
       </c>
       <c r="AE202" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM202" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN202" t="s">
         <v>1008</v>
@@ -24428,10 +24434,10 @@
         <v>984</v>
       </c>
       <c r="AE203" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM203" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN203" t="s">
         <v>1008</v>
@@ -24511,16 +24517,16 @@
         <v>2</v>
       </c>
       <c r="W204">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X204">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y204">
         <v>0</v>
       </c>
       <c r="Z204">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA204">
         <v>0</v>
@@ -24532,7 +24538,7 @@
         <v>984</v>
       </c>
       <c r="AE204" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM204" t="s">
         <v>1006</v>
@@ -24547,7 +24553,7 @@
         <v>1012</v>
       </c>
       <c r="AQ204">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:43">
@@ -24636,10 +24642,10 @@
         <v>984</v>
       </c>
       <c r="AE205" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM205" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN205" t="s">
         <v>1008</v>
@@ -24740,10 +24746,10 @@
         <v>984</v>
       </c>
       <c r="AE206" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM206" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN206" t="s">
         <v>1008</v>
@@ -24826,16 +24832,16 @@
         <v>2</v>
       </c>
       <c r="W207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y207">
         <v>0</v>
       </c>
       <c r="Z207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA207">
         <v>0</v>
@@ -24847,7 +24853,7 @@
         <v>984</v>
       </c>
       <c r="AE207" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM207" t="s">
         <v>1006</v>
@@ -24862,7 +24868,7 @@
         <v>1012</v>
       </c>
       <c r="AQ207">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:43">
@@ -24954,10 +24960,10 @@
         <v>984</v>
       </c>
       <c r="AE208" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM208" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN208" t="s">
         <v>1008</v>
@@ -25058,10 +25064,10 @@
         <v>984</v>
       </c>
       <c r="AE209" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM209" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN209" t="s">
         <v>1008</v>
@@ -25162,10 +25168,10 @@
         <v>984</v>
       </c>
       <c r="AE210" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM210" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN210" t="s">
         <v>1008</v>
@@ -25269,10 +25275,10 @@
         <v>984</v>
       </c>
       <c r="AE211" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM211" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN211" t="s">
         <v>1008</v>
@@ -25373,10 +25379,10 @@
         <v>984</v>
       </c>
       <c r="AE212" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM212" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN212" t="s">
         <v>1008</v>
@@ -25477,10 +25483,10 @@
         <v>984</v>
       </c>
       <c r="AE213" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM213" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN213" t="s">
         <v>1008</v>
@@ -25581,10 +25587,10 @@
         <v>984</v>
       </c>
       <c r="AE214" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM214" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN214" t="s">
         <v>1008</v>
@@ -25685,10 +25691,10 @@
         <v>984</v>
       </c>
       <c r="AE215" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM215" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN215" t="s">
         <v>1008</v>
@@ -25792,10 +25798,10 @@
         <v>984</v>
       </c>
       <c r="AE216" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM216" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN216" t="s">
         <v>1008</v>
@@ -25896,10 +25902,10 @@
         <v>984</v>
       </c>
       <c r="AE217" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM217" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN217" t="s">
         <v>1008</v>
@@ -25988,10 +25994,10 @@
         <v>984</v>
       </c>
       <c r="AE218" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM218" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN218" t="s">
         <v>1008</v>
@@ -26095,10 +26101,10 @@
         <v>984</v>
       </c>
       <c r="AE219" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM219" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN219" t="s">
         <v>1008</v>
@@ -26178,16 +26184,16 @@
         <v>2</v>
       </c>
       <c r="W220">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X220">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y220">
         <v>0</v>
       </c>
       <c r="Z220">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA220">
         <v>0</v>
@@ -26199,7 +26205,7 @@
         <v>984</v>
       </c>
       <c r="AE220" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM220" t="s">
         <v>1006</v>
@@ -26214,7 +26220,7 @@
         <v>1012</v>
       </c>
       <c r="AQ220">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:43">
@@ -26306,10 +26312,10 @@
         <v>984</v>
       </c>
       <c r="AE221" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM221" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN221" t="s">
         <v>1008</v>
@@ -26413,10 +26419,10 @@
         <v>984</v>
       </c>
       <c r="AE222" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM222" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN222" t="s">
         <v>1008</v>
@@ -26517,10 +26523,10 @@
         <v>984</v>
       </c>
       <c r="AE223" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM223" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN223" t="s">
         <v>1008</v>
@@ -26618,10 +26624,10 @@
         <v>984</v>
       </c>
       <c r="AE224" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM224" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN224" t="s">
         <v>1008</v>
@@ -26722,10 +26728,10 @@
         <v>984</v>
       </c>
       <c r="AE225" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM225" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN225" t="s">
         <v>1008</v>
@@ -26829,10 +26835,10 @@
         <v>984</v>
       </c>
       <c r="AE226" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM226" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN226" t="s">
         <v>1008</v>
@@ -26933,10 +26939,10 @@
         <v>984</v>
       </c>
       <c r="AE227" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM227" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN227" t="s">
         <v>1008</v>
@@ -27037,10 +27043,10 @@
         <v>984</v>
       </c>
       <c r="AE228" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM228" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN228" t="s">
         <v>1008</v>
@@ -27141,10 +27147,10 @@
         <v>984</v>
       </c>
       <c r="AE229" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM229" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN229" t="s">
         <v>1008</v>
@@ -27245,10 +27251,10 @@
         <v>984</v>
       </c>
       <c r="AE230" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM230" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN230" t="s">
         <v>1008</v>
@@ -27349,7 +27355,7 @@
         <v>984</v>
       </c>
       <c r="AE231" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AF231" t="s">
         <v>306</v>
@@ -27370,7 +27376,7 @@
         <v>0</v>
       </c>
       <c r="AM231" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN231" t="s">
         <v>1009</v>
@@ -27471,10 +27477,10 @@
         <v>984</v>
       </c>
       <c r="AE232" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM232" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN232" t="s">
         <v>1008</v>
@@ -27578,10 +27584,10 @@
         <v>984</v>
       </c>
       <c r="AE233" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM233" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN233" t="s">
         <v>1008</v>
@@ -27685,10 +27691,10 @@
         <v>984</v>
       </c>
       <c r="AE234" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM234" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN234" t="s">
         <v>1008</v>
@@ -27768,16 +27774,16 @@
         <v>2</v>
       </c>
       <c r="W235">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X235">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y235">
         <v>0</v>
       </c>
       <c r="Z235">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA235">
         <v>0</v>
@@ -27789,7 +27795,7 @@
         <v>984</v>
       </c>
       <c r="AE235" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM235" t="s">
         <v>1006</v>
@@ -27804,7 +27810,7 @@
         <v>1012</v>
       </c>
       <c r="AQ235">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:43">
@@ -27896,10 +27902,10 @@
         <v>984</v>
       </c>
       <c r="AE236" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM236" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN236" t="s">
         <v>1008</v>
@@ -28000,10 +28006,10 @@
         <v>984</v>
       </c>
       <c r="AE237" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM237" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN237" t="s">
         <v>1008</v>
@@ -28104,10 +28110,10 @@
         <v>984</v>
       </c>
       <c r="AE238" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM238" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN238" t="s">
         <v>1008</v>
@@ -28211,10 +28217,10 @@
         <v>984</v>
       </c>
       <c r="AE239" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM239" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN239" t="s">
         <v>1008</v>
@@ -28297,13 +28303,13 @@
         <v>2</v>
       </c>
       <c r="W240">
+        <v>2</v>
+      </c>
+      <c r="X240">
+        <v>2</v>
+      </c>
+      <c r="Y240">
         <v>1</v>
-      </c>
-      <c r="X240">
-        <v>1</v>
-      </c>
-      <c r="Y240">
-        <v>0</v>
       </c>
       <c r="Z240">
         <v>1</v>
@@ -28318,7 +28324,7 @@
         <v>984</v>
       </c>
       <c r="AE240" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM240" t="s">
         <v>1006</v>
@@ -28333,7 +28339,7 @@
         <v>1012</v>
       </c>
       <c r="AQ240">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:43">
@@ -28401,16 +28407,16 @@
         <v>2</v>
       </c>
       <c r="W241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y241">
         <v>0</v>
       </c>
       <c r="Z241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA241">
         <v>0</v>
@@ -28422,7 +28428,7 @@
         <v>984</v>
       </c>
       <c r="AE241" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM241" t="s">
         <v>1006</v>
@@ -28437,7 +28443,7 @@
         <v>1012</v>
       </c>
       <c r="AQ241">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:43">
@@ -28526,10 +28532,10 @@
         <v>984</v>
       </c>
       <c r="AE242" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM242" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN242" t="s">
         <v>1008</v>
@@ -28630,10 +28636,10 @@
         <v>984</v>
       </c>
       <c r="AE243" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM243" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN243" t="s">
         <v>1008</v>
@@ -28734,10 +28740,10 @@
         <v>984</v>
       </c>
       <c r="AE244" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM244" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN244" t="s">
         <v>1008</v>
@@ -28838,10 +28844,10 @@
         <v>984</v>
       </c>
       <c r="AE245" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM245" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN245" t="s">
         <v>1008</v>
@@ -28945,10 +28951,10 @@
         <v>984</v>
       </c>
       <c r="AE246" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM246" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN246" t="s">
         <v>1008</v>
@@ -29049,10 +29055,10 @@
         <v>984</v>
       </c>
       <c r="AE247" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM247" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN247" t="s">
         <v>1008</v>
@@ -29156,10 +29162,10 @@
         <v>984</v>
       </c>
       <c r="AE248" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM248" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN248" t="s">
         <v>1008</v>
@@ -29242,16 +29248,16 @@
         <v>2</v>
       </c>
       <c r="W249">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X249">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y249">
         <v>0</v>
       </c>
       <c r="Z249">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA249">
         <v>0</v>
@@ -29263,7 +29269,7 @@
         <v>984</v>
       </c>
       <c r="AE249" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM249" t="s">
         <v>1006</v>
@@ -29278,7 +29284,7 @@
         <v>1012</v>
       </c>
       <c r="AQ249">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:43">
@@ -29346,16 +29352,16 @@
         <v>2</v>
       </c>
       <c r="W250">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X250">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y250">
         <v>0</v>
       </c>
       <c r="Z250">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA250">
         <v>0</v>
@@ -29367,7 +29373,7 @@
         <v>984</v>
       </c>
       <c r="AE250" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM250" t="s">
         <v>1006</v>
@@ -29382,7 +29388,7 @@
         <v>1012</v>
       </c>
       <c r="AQ250">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:43">
@@ -29450,16 +29456,16 @@
         <v>2</v>
       </c>
       <c r="W251">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X251">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y251">
         <v>0</v>
       </c>
       <c r="Z251">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA251">
         <v>0</v>
@@ -29471,7 +29477,7 @@
         <v>984</v>
       </c>
       <c r="AE251" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM251" t="s">
         <v>1006</v>
@@ -29486,7 +29492,7 @@
         <v>1012</v>
       </c>
       <c r="AQ251">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:43">
@@ -29575,10 +29581,10 @@
         <v>984</v>
       </c>
       <c r="AE252" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM252" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN252" t="s">
         <v>1008</v>
@@ -29661,16 +29667,16 @@
         <v>2</v>
       </c>
       <c r="W253">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X253">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y253">
         <v>0</v>
       </c>
       <c r="Z253">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA253">
         <v>0</v>
@@ -29682,7 +29688,7 @@
         <v>984</v>
       </c>
       <c r="AE253" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM253" t="s">
         <v>1006</v>
@@ -29697,7 +29703,7 @@
         <v>1012</v>
       </c>
       <c r="AQ253">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:43">
@@ -29768,16 +29774,16 @@
         <v>2</v>
       </c>
       <c r="W254">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X254">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y254">
         <v>0</v>
       </c>
       <c r="Z254">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA254">
         <v>0</v>
@@ -29789,7 +29795,7 @@
         <v>984</v>
       </c>
       <c r="AE254" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM254" t="s">
         <v>1006</v>
@@ -29804,7 +29810,7 @@
         <v>1012</v>
       </c>
       <c r="AQ254">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:43">
@@ -29881,10 +29887,10 @@
         <v>984</v>
       </c>
       <c r="AE255" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM255" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN255" t="s">
         <v>1008</v>
@@ -29988,10 +29994,10 @@
         <v>984</v>
       </c>
       <c r="AE256" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM256" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN256" t="s">
         <v>1008</v>
@@ -30095,10 +30101,10 @@
         <v>984</v>
       </c>
       <c r="AE257" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM257" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN257" t="s">
         <v>1008</v>
@@ -30199,10 +30205,10 @@
         <v>984</v>
       </c>
       <c r="AE258" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM258" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN258" t="s">
         <v>1008</v>
@@ -30303,10 +30309,10 @@
         <v>984</v>
       </c>
       <c r="AE259" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM259" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN259" t="s">
         <v>1008</v>
@@ -30410,10 +30416,10 @@
         <v>984</v>
       </c>
       <c r="AE260" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM260" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN260" t="s">
         <v>1008</v>
@@ -30496,16 +30502,16 @@
         <v>2</v>
       </c>
       <c r="W261">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X261">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y261">
         <v>0</v>
       </c>
       <c r="Z261">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA261">
         <v>0</v>
@@ -30517,7 +30523,7 @@
         <v>984</v>
       </c>
       <c r="AE261" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM261" t="s">
         <v>1006</v>
@@ -30532,7 +30538,7 @@
         <v>1012</v>
       </c>
       <c r="AQ261">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:43">
@@ -30609,10 +30615,10 @@
         <v>984</v>
       </c>
       <c r="AE262" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM262" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN262" t="s">
         <v>1008</v>
@@ -30713,10 +30719,10 @@
         <v>984</v>
       </c>
       <c r="AE263" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM263" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN263" t="s">
         <v>1008</v>
@@ -30796,16 +30802,16 @@
         <v>2</v>
       </c>
       <c r="W264">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X264">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y264">
         <v>0</v>
       </c>
       <c r="Z264">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA264">
         <v>0</v>
@@ -30817,7 +30823,7 @@
         <v>984</v>
       </c>
       <c r="AE264" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM264" t="s">
         <v>1006</v>
@@ -30832,7 +30838,7 @@
         <v>1012</v>
       </c>
       <c r="AQ264">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:43">
@@ -30921,10 +30927,10 @@
         <v>984</v>
       </c>
       <c r="AE265" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM265" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN265" t="s">
         <v>1008</v>
@@ -31025,10 +31031,10 @@
         <v>984</v>
       </c>
       <c r="AE266" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM266" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN266" t="s">
         <v>1008</v>
@@ -31096,16 +31102,16 @@
         <v>2</v>
       </c>
       <c r="W267">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X267">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y267">
         <v>0</v>
       </c>
       <c r="Z267">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA267">
         <v>0</v>
@@ -31117,7 +31123,7 @@
         <v>984</v>
       </c>
       <c r="AE267" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM267" t="s">
         <v>1006</v>
@@ -31132,7 +31138,7 @@
         <v>1012</v>
       </c>
       <c r="AQ267">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:43">
@@ -31221,10 +31227,10 @@
         <v>984</v>
       </c>
       <c r="AE268" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM268" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN268" t="s">
         <v>1008</v>
@@ -31328,10 +31334,10 @@
         <v>984</v>
       </c>
       <c r="AE269" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM269" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN269" t="s">
         <v>1008</v>
@@ -31432,10 +31438,10 @@
         <v>984</v>
       </c>
       <c r="AE270" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM270" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN270" t="s">
         <v>1008</v>
@@ -31539,10 +31545,10 @@
         <v>984</v>
       </c>
       <c r="AE271" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM271" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN271" t="s">
         <v>1008</v>
@@ -31643,10 +31649,10 @@
         <v>984</v>
       </c>
       <c r="AE272" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM272" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN272" t="s">
         <v>1008</v>
@@ -31747,10 +31753,10 @@
         <v>984</v>
       </c>
       <c r="AE273" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM273" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN273" t="s">
         <v>1008</v>
@@ -31839,7 +31845,7 @@
         <v>984</v>
       </c>
       <c r="AE274" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AF274" t="s">
         <v>349</v>
@@ -31863,7 +31869,7 @@
         <v>0</v>
       </c>
       <c r="AM274" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN274" t="s">
         <v>1009</v>
@@ -31952,10 +31958,10 @@
         <v>984</v>
       </c>
       <c r="AE275" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM275" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN275" t="s">
         <v>1008</v>
@@ -32056,10 +32062,10 @@
         <v>984</v>
       </c>
       <c r="AE276" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM276" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN276" t="s">
         <v>1008</v>
@@ -32163,10 +32169,10 @@
         <v>984</v>
       </c>
       <c r="AE277" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM277" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN277" t="s">
         <v>1008</v>
@@ -32267,10 +32273,10 @@
         <v>984</v>
       </c>
       <c r="AE278" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM278" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN278" t="s">
         <v>1008</v>
@@ -32374,7 +32380,7 @@
         <v>984</v>
       </c>
       <c r="AE279" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AF279" t="s">
         <v>354</v>
@@ -32398,7 +32404,7 @@
         <v>1</v>
       </c>
       <c r="AM279" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN279" t="s">
         <v>1009</v>
@@ -32499,10 +32505,10 @@
         <v>984</v>
       </c>
       <c r="AE280" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM280" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN280" t="s">
         <v>1008</v>
@@ -32603,10 +32609,10 @@
         <v>984</v>
       </c>
       <c r="AE281" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM281" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN281" t="s">
         <v>1008</v>
@@ -32695,10 +32701,10 @@
         <v>984</v>
       </c>
       <c r="AE282" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM282" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN282" t="s">
         <v>1008</v>
@@ -32802,10 +32808,10 @@
         <v>984</v>
       </c>
       <c r="AE283" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM283" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN283" t="s">
         <v>1008</v>
@@ -32885,16 +32891,16 @@
         <v>2</v>
       </c>
       <c r="W284">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X284">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y284">
         <v>0</v>
       </c>
       <c r="Z284">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA284">
         <v>0</v>
@@ -32906,7 +32912,7 @@
         <v>984</v>
       </c>
       <c r="AE284" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM284" t="s">
         <v>1006</v>
@@ -32921,7 +32927,7 @@
         <v>1012</v>
       </c>
       <c r="AQ284">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:43">
@@ -33010,10 +33016,10 @@
         <v>984</v>
       </c>
       <c r="AE285" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM285" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN285" t="s">
         <v>1008</v>
@@ -33096,16 +33102,16 @@
         <v>2</v>
       </c>
       <c r="W286">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X286">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y286">
         <v>0</v>
       </c>
       <c r="Z286">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA286">
         <v>0</v>
@@ -33117,7 +33123,7 @@
         <v>984</v>
       </c>
       <c r="AE286" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM286" t="s">
         <v>1006</v>
@@ -33132,7 +33138,7 @@
         <v>1012</v>
       </c>
       <c r="AQ286">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:43">
@@ -33221,10 +33227,10 @@
         <v>984</v>
       </c>
       <c r="AE287" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM287" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN287" t="s">
         <v>1008</v>
@@ -33325,10 +33331,10 @@
         <v>984</v>
       </c>
       <c r="AE288" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM288" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN288" t="s">
         <v>1008</v>
@@ -33423,10 +33429,10 @@
         <v>984</v>
       </c>
       <c r="AE289" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM289" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN289" t="s">
         <v>1008</v>
@@ -33530,10 +33536,10 @@
         <v>984</v>
       </c>
       <c r="AE290" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM290" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN290" t="s">
         <v>1008</v>
@@ -33622,10 +33628,10 @@
         <v>984</v>
       </c>
       <c r="AE291" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM291" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN291" t="s">
         <v>1008</v>
@@ -33729,10 +33735,10 @@
         <v>984</v>
       </c>
       <c r="AE292" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM292" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN292" t="s">
         <v>1008</v>
@@ -33800,16 +33806,16 @@
         <v>2</v>
       </c>
       <c r="W293">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X293">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y293">
         <v>0</v>
       </c>
       <c r="Z293">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA293">
         <v>0</v>
@@ -33821,7 +33827,7 @@
         <v>984</v>
       </c>
       <c r="AE293" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM293" t="s">
         <v>1006</v>
@@ -33836,7 +33842,7 @@
         <v>1012</v>
       </c>
       <c r="AQ293">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:43">
@@ -33904,16 +33910,16 @@
         <v>2</v>
       </c>
       <c r="W294">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X294">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y294">
         <v>0</v>
       </c>
       <c r="Z294">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA294">
         <v>0</v>
@@ -33925,7 +33931,7 @@
         <v>984</v>
       </c>
       <c r="AE294" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM294" t="s">
         <v>1006</v>
@@ -33940,7 +33946,7 @@
         <v>1012</v>
       </c>
       <c r="AQ294">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:43">
@@ -34032,10 +34038,10 @@
         <v>984</v>
       </c>
       <c r="AE295" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM295" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN295" t="s">
         <v>1008</v>
@@ -34139,10 +34145,10 @@
         <v>984</v>
       </c>
       <c r="AE296" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM296" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN296" t="s">
         <v>1008</v>
@@ -34225,16 +34231,16 @@
         <v>2</v>
       </c>
       <c r="W297">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X297">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y297">
         <v>0</v>
       </c>
       <c r="Z297">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA297">
         <v>0</v>
@@ -34246,7 +34252,7 @@
         <v>984</v>
       </c>
       <c r="AE297" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM297" t="s">
         <v>1006</v>
@@ -34261,7 +34267,7 @@
         <v>1012</v>
       </c>
       <c r="AQ297">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:43">
@@ -34350,10 +34356,10 @@
         <v>984</v>
       </c>
       <c r="AE298" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM298" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN298" t="s">
         <v>1008</v>
@@ -34457,10 +34463,10 @@
         <v>984</v>
       </c>
       <c r="AE299" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM299" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN299" t="s">
         <v>1008</v>
@@ -34561,10 +34567,10 @@
         <v>984</v>
       </c>
       <c r="AE300" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM300" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN300" t="s">
         <v>1008</v>
@@ -34668,10 +34674,10 @@
         <v>984</v>
       </c>
       <c r="AE301" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM301" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN301" t="s">
         <v>1008</v>
@@ -34775,10 +34781,10 @@
         <v>984</v>
       </c>
       <c r="AE302" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM302" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN302" t="s">
         <v>1008</v>
@@ -34879,10 +34885,10 @@
         <v>984</v>
       </c>
       <c r="AE303" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM303" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN303" t="s">
         <v>1008</v>
@@ -34971,10 +34977,10 @@
         <v>984</v>
       </c>
       <c r="AE304" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM304" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN304" t="s">
         <v>1008</v>
@@ -35075,10 +35081,10 @@
         <v>984</v>
       </c>
       <c r="AE305" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM305" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN305" t="s">
         <v>1008</v>
@@ -35182,10 +35188,10 @@
         <v>984</v>
       </c>
       <c r="AE306" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM306" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN306" t="s">
         <v>1008</v>
@@ -35274,7 +35280,7 @@
         <v>984</v>
       </c>
       <c r="AE307" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AF307" t="s">
         <v>382</v>
@@ -35298,7 +35304,7 @@
         <v>1</v>
       </c>
       <c r="AM307" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN307" t="s">
         <v>1009</v>
@@ -35399,10 +35405,10 @@
         <v>984</v>
       </c>
       <c r="AE308" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM308" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN308" t="s">
         <v>1008</v>
@@ -35503,10 +35509,10 @@
         <v>984</v>
       </c>
       <c r="AE309" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM309" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN309" t="s">
         <v>1008</v>
@@ -35610,10 +35616,10 @@
         <v>984</v>
       </c>
       <c r="AE310" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM310" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN310" t="s">
         <v>1008</v>
@@ -35714,10 +35720,10 @@
         <v>984</v>
       </c>
       <c r="AE311" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM311" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN311" t="s">
         <v>1008</v>
@@ -35800,16 +35806,16 @@
         <v>2</v>
       </c>
       <c r="W312">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X312">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y312">
         <v>0</v>
       </c>
       <c r="Z312">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA312">
         <v>0</v>
@@ -35821,7 +35827,7 @@
         <v>984</v>
       </c>
       <c r="AE312" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM312" t="s">
         <v>1006</v>
@@ -35836,7 +35842,7 @@
         <v>1012</v>
       </c>
       <c r="AQ312">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:43">
@@ -35925,10 +35931,10 @@
         <v>984</v>
       </c>
       <c r="AE313" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM313" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN313" t="s">
         <v>1008</v>
@@ -36017,10 +36023,10 @@
         <v>984</v>
       </c>
       <c r="AE314" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM314" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN314" t="s">
         <v>1008</v>
@@ -36121,10 +36127,10 @@
         <v>984</v>
       </c>
       <c r="AE315" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM315" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN315" t="s">
         <v>1008</v>
@@ -36213,10 +36219,10 @@
         <v>984</v>
       </c>
       <c r="AE316" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM316" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN316" t="s">
         <v>1008</v>
@@ -36317,10 +36323,10 @@
         <v>984</v>
       </c>
       <c r="AE317" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM317" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN317" t="s">
         <v>1008</v>
@@ -36409,10 +36415,10 @@
         <v>984</v>
       </c>
       <c r="AE318" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM318" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN318" t="s">
         <v>1008</v>
@@ -36501,7 +36507,7 @@
         <v>984</v>
       </c>
       <c r="AE319" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AF319" t="s">
         <v>394</v>
@@ -36525,7 +36531,7 @@
         <v>1</v>
       </c>
       <c r="AM319" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN319" t="s">
         <v>1009</v>
@@ -36626,10 +36632,10 @@
         <v>984</v>
       </c>
       <c r="AE320" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM320" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN320" t="s">
         <v>1008</v>
@@ -36730,10 +36736,10 @@
         <v>984</v>
       </c>
       <c r="AE321" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM321" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN321" t="s">
         <v>1008</v>
@@ -36834,10 +36840,10 @@
         <v>984</v>
       </c>
       <c r="AE322" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM322" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN322" t="s">
         <v>1008</v>
@@ -36926,10 +36932,10 @@
         <v>984</v>
       </c>
       <c r="AE323" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM323" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN323" t="s">
         <v>1008</v>
@@ -37033,10 +37039,10 @@
         <v>984</v>
       </c>
       <c r="AE324" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM324" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN324" t="s">
         <v>1008</v>
@@ -37137,10 +37143,10 @@
         <v>984</v>
       </c>
       <c r="AE325" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM325" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN325" t="s">
         <v>1008</v>
@@ -37244,10 +37250,10 @@
         <v>984</v>
       </c>
       <c r="AE326" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM326" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN326" t="s">
         <v>1008</v>
@@ -37351,10 +37357,10 @@
         <v>984</v>
       </c>
       <c r="AE327" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM327" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN327" t="s">
         <v>1008</v>
@@ -37455,10 +37461,10 @@
         <v>984</v>
       </c>
       <c r="AE328" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM328" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN328" t="s">
         <v>1008</v>
@@ -37562,10 +37568,10 @@
         <v>984</v>
       </c>
       <c r="AE329" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM329" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN329" t="s">
         <v>1008</v>
@@ -37666,10 +37672,10 @@
         <v>984</v>
       </c>
       <c r="AE330" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM330" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN330" t="s">
         <v>1008</v>
@@ -37773,10 +37779,10 @@
         <v>984</v>
       </c>
       <c r="AE331" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM331" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN331" t="s">
         <v>1008</v>
@@ -37877,10 +37883,10 @@
         <v>984</v>
       </c>
       <c r="AE332" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM332" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN332" t="s">
         <v>1008</v>
@@ -37984,10 +37990,10 @@
         <v>984</v>
       </c>
       <c r="AE333" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM333" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN333" t="s">
         <v>1008</v>
@@ -38088,10 +38094,10 @@
         <v>984</v>
       </c>
       <c r="AE334" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM334" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN334" t="s">
         <v>1008</v>
@@ -38192,10 +38198,10 @@
         <v>984</v>
       </c>
       <c r="AE335" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM335" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN335" t="s">
         <v>1008</v>
@@ -38296,10 +38302,10 @@
         <v>984</v>
       </c>
       <c r="AE336" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM336" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN336" t="s">
         <v>1008</v>
@@ -38388,10 +38394,10 @@
         <v>984</v>
       </c>
       <c r="AE337" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM337" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN337" t="s">
         <v>1008</v>
@@ -38492,10 +38498,10 @@
         <v>984</v>
       </c>
       <c r="AE338" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM338" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN338" t="s">
         <v>1008</v>
@@ -38599,10 +38605,10 @@
         <v>984</v>
       </c>
       <c r="AE339" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM339" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN339" t="s">
         <v>1008</v>
@@ -38703,10 +38709,10 @@
         <v>984</v>
       </c>
       <c r="AE340" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM340" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN340" t="s">
         <v>1008</v>
@@ -38795,10 +38801,10 @@
         <v>984</v>
       </c>
       <c r="AE341" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM341" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN341" t="s">
         <v>1008</v>
@@ -38878,16 +38884,16 @@
         <v>2</v>
       </c>
       <c r="W342">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X342">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y342">
         <v>0</v>
       </c>
       <c r="Z342">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA342">
         <v>0</v>
@@ -38899,7 +38905,7 @@
         <v>984</v>
       </c>
       <c r="AE342" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM342" t="s">
         <v>1006</v>
@@ -38914,7 +38920,7 @@
         <v>1012</v>
       </c>
       <c r="AQ342">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:43">
@@ -38982,16 +38988,16 @@
         <v>2</v>
       </c>
       <c r="W343">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X343">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y343">
         <v>0</v>
       </c>
       <c r="Z343">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA343">
         <v>0</v>
@@ -39003,7 +39009,7 @@
         <v>984</v>
       </c>
       <c r="AE343" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM343" t="s">
         <v>1006</v>
@@ -39018,7 +39024,7 @@
         <v>1012</v>
       </c>
       <c r="AQ343">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:43">
@@ -39086,16 +39092,16 @@
         <v>2</v>
       </c>
       <c r="W344">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X344">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y344">
         <v>0</v>
       </c>
       <c r="Z344">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA344">
         <v>0</v>
@@ -39107,7 +39113,7 @@
         <v>984</v>
       </c>
       <c r="AE344" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM344" t="s">
         <v>1006</v>
@@ -39122,7 +39128,7 @@
         <v>1012</v>
       </c>
       <c r="AQ344">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:43">
@@ -39214,10 +39220,10 @@
         <v>984</v>
       </c>
       <c r="AE345" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM345" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN345" t="s">
         <v>1008</v>
@@ -39321,10 +39327,10 @@
         <v>984</v>
       </c>
       <c r="AE346" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM346" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN346" t="s">
         <v>1008</v>
@@ -39392,16 +39398,16 @@
         <v>2</v>
       </c>
       <c r="W347">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X347">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y347">
         <v>0</v>
       </c>
       <c r="Z347">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA347">
         <v>0</v>
@@ -39413,7 +39419,7 @@
         <v>984</v>
       </c>
       <c r="AE347" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM347" t="s">
         <v>1006</v>
@@ -39428,7 +39434,7 @@
         <v>1012</v>
       </c>
       <c r="AQ347">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:43">
@@ -39505,10 +39511,10 @@
         <v>984</v>
       </c>
       <c r="AE348" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM348" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN348" t="s">
         <v>1008</v>
@@ -39597,10 +39603,10 @@
         <v>984</v>
       </c>
       <c r="AE349" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM349" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN349" t="s">
         <v>1008</v>
@@ -39701,10 +39707,10 @@
         <v>984</v>
       </c>
       <c r="AE350" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM350" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN350" t="s">
         <v>1008</v>
@@ -39808,10 +39814,10 @@
         <v>984</v>
       </c>
       <c r="AE351" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM351" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN351" t="s">
         <v>1008</v>
@@ -39915,10 +39921,10 @@
         <v>984</v>
       </c>
       <c r="AE352" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM352" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN352" t="s">
         <v>1008</v>
@@ -40022,10 +40028,10 @@
         <v>984</v>
       </c>
       <c r="AE353" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM353" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN353" t="s">
         <v>1008</v>
@@ -40108,16 +40114,16 @@
         <v>2</v>
       </c>
       <c r="W354">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X354">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y354">
         <v>0</v>
       </c>
       <c r="Z354">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA354">
         <v>0</v>
@@ -40129,7 +40135,7 @@
         <v>984</v>
       </c>
       <c r="AE354" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM354" t="s">
         <v>1006</v>
@@ -40144,7 +40150,7 @@
         <v>1012</v>
       </c>
       <c r="AQ354">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:43">
@@ -40236,10 +40242,10 @@
         <v>984</v>
       </c>
       <c r="AE355" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM355" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN355" t="s">
         <v>1008</v>
@@ -40343,10 +40349,10 @@
         <v>984</v>
       </c>
       <c r="AE356" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM356" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN356" t="s">
         <v>1008</v>
@@ -40450,10 +40456,10 @@
         <v>984</v>
       </c>
       <c r="AE357" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM357" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN357" t="s">
         <v>1008</v>
@@ -40554,10 +40560,10 @@
         <v>984</v>
       </c>
       <c r="AE358" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM358" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN358" t="s">
         <v>1008</v>
@@ -40640,16 +40646,16 @@
         <v>2</v>
       </c>
       <c r="W359">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X359">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y359">
         <v>0</v>
       </c>
       <c r="Z359">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA359">
         <v>0</v>
@@ -40661,7 +40667,7 @@
         <v>984</v>
       </c>
       <c r="AE359" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM359" t="s">
         <v>1006</v>
@@ -40676,7 +40682,7 @@
         <v>1012</v>
       </c>
       <c r="AQ359">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:43">
@@ -40765,10 +40771,10 @@
         <v>984</v>
       </c>
       <c r="AE360" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM360" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN360" t="s">
         <v>1008</v>
@@ -40869,10 +40875,10 @@
         <v>984</v>
       </c>
       <c r="AE361" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM361" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN361" t="s">
         <v>1008</v>
@@ -40973,10 +40979,10 @@
         <v>984</v>
       </c>
       <c r="AE362" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM362" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN362" t="s">
         <v>1008</v>
@@ -41080,10 +41086,10 @@
         <v>984</v>
       </c>
       <c r="AE363" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM363" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN363" t="s">
         <v>1008</v>
@@ -41172,10 +41178,10 @@
         <v>984</v>
       </c>
       <c r="AE364" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM364" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN364" t="s">
         <v>1008</v>
@@ -41264,10 +41270,10 @@
         <v>984</v>
       </c>
       <c r="AE365" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM365" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN365" t="s">
         <v>1008</v>
@@ -41368,10 +41374,10 @@
         <v>984</v>
       </c>
       <c r="AE366" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM366" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN366" t="s">
         <v>1008</v>
@@ -41475,10 +41481,10 @@
         <v>984</v>
       </c>
       <c r="AE367" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM367" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN367" t="s">
         <v>1008</v>
@@ -41579,10 +41585,10 @@
         <v>984</v>
       </c>
       <c r="AE368" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM368" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN368" t="s">
         <v>1008</v>
@@ -41671,10 +41677,10 @@
         <v>984</v>
       </c>
       <c r="AE369" s="1">
-        <v>46008.98004069642</v>
+        <v>46011.36509257641</v>
       </c>
       <c r="AM369" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN369" t="s">
         <v>1008</v>
